--- a/biology/Botanique/Louis-Ovide_Brunet/Louis-Ovide_Brunet.xlsx
+++ b/biology/Botanique/Louis-Ovide_Brunet/Louis-Ovide_Brunet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Ovide Brunet (10 mars 1826 - 2 octobre 1876) est un botaniste canadien-français et un prêtre catholique. Il est considéré comme l'un des pères fondateurs de la botanique canadienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brunet est né à Québec le 10 mars 1826, de Jean-Olivier Brunet, marchand, et de Cécile-Adélaide Lagueux. À partir de 1844, il est élève du séminaire de Québec avant d'être ordonné prêtre le 10 octobre 1848.
 Pendant les dix années suivantes, il est employé en tant que missionnaire, curé et prêtre de paroisse. Il est successivement : vicaire à la cathédrale de Québec (1848-1849) ; curé de Valcartier (1849-1850); vicaire à Saint-Joseph-de-Lévis (1850-1851) ; missionnaire à la Grosse-Île (1851-1853) ; vicaire encore à la cathédrale de Québec (1853), à Sainte-Anne-de-la-Pérade (1853), à Lévis (1853-1854) et curé de Saint-Lambert-de-Lévis (1854-1858).
